--- a/script_master_data/ficherosExcelOrigen/DED-CONFIG2_Adopcion IA_v1a.xlsx
+++ b/script_master_data/ficherosExcelOrigen/DED-CONFIG2_Adopcion IA_v1a.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718C411-558C-43DA-A265-7CD25CE3A27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC692B-2D8F-42FF-AD0A-B977CC80E02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Reporte" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$178</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -20961,13 +20961,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:BR196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="AS6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29201,7 +29202,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="157"/>
       <c r="D66" s="10"/>
@@ -29246,7 +29247,7 @@
       <c r="AQ66" s="28"/>
       <c r="AR66" s="28"/>
     </row>
-    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="157"/>
       <c r="D67" s="10"/>
@@ -29291,7 +29292,7 @@
       <c r="AQ67" s="28"/>
       <c r="AR67" s="28"/>
     </row>
-    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="157"/>
       <c r="D68" s="10"/>
@@ -29336,7 +29337,7 @@
       <c r="AQ68" s="28"/>
       <c r="AR68" s="28"/>
     </row>
-    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="157"/>
       <c r="D69" s="10"/>
@@ -29381,7 +29382,7 @@
       <c r="AQ69" s="28"/>
       <c r="AR69" s="28"/>
     </row>
-    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="157"/>
       <c r="D70" s="10"/>
@@ -29426,7 +29427,7 @@
       <c r="AQ70" s="28"/>
       <c r="AR70" s="28"/>
     </row>
-    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="157"/>
       <c r="D71" s="10"/>
@@ -29471,7 +29472,7 @@
       <c r="AQ71" s="28"/>
       <c r="AR71" s="28"/>
     </row>
-    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="157"/>
       <c r="D72" s="10"/>
@@ -29516,7 +29517,7 @@
       <c r="AQ72" s="28"/>
       <c r="AR72" s="28"/>
     </row>
-    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="157"/>
       <c r="D73" s="10"/>
@@ -29561,7 +29562,7 @@
       <c r="AQ73" s="28"/>
       <c r="AR73" s="28"/>
     </row>
-    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="157"/>
       <c r="D74" s="10"/>
@@ -29606,7 +29607,7 @@
       <c r="AQ74" s="28"/>
       <c r="AR74" s="28"/>
     </row>
-    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="157"/>
       <c r="D75" s="10"/>
@@ -29651,7 +29652,7 @@
       <c r="AQ75" s="28"/>
       <c r="AR75" s="28"/>
     </row>
-    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="157"/>
       <c r="D76" s="10"/>
@@ -29690,7 +29691,7 @@
       <c r="AQ76" s="28"/>
       <c r="AR76" s="28"/>
     </row>
-    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="157"/>
       <c r="D77" s="10"/>
@@ -29735,7 +29736,7 @@
       <c r="AQ77" s="28"/>
       <c r="AR77" s="28"/>
     </row>
-    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="157"/>
       <c r="D78" s="10"/>
@@ -29780,7 +29781,7 @@
       <c r="AQ78" s="28"/>
       <c r="AR78" s="28"/>
     </row>
-    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="157"/>
       <c r="D79" s="10"/>
@@ -29825,7 +29826,7 @@
       <c r="AQ79" s="28"/>
       <c r="AR79" s="28"/>
     </row>
-    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="157"/>
       <c r="D80" s="10"/>
@@ -29870,7 +29871,7 @@
       <c r="AQ80" s="28"/>
       <c r="AR80" s="28"/>
     </row>
-    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="157"/>
       <c r="D81" s="10"/>
@@ -29915,7 +29916,7 @@
       <c r="AQ81" s="28"/>
       <c r="AR81" s="28"/>
     </row>
-    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="157"/>
       <c r="D82" s="10"/>
@@ -29960,7 +29961,7 @@
       <c r="AQ82" s="28"/>
       <c r="AR82" s="28"/>
     </row>
-    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="157"/>
       <c r="D83" s="10"/>
@@ -30005,7 +30006,7 @@
       <c r="AQ83" s="28"/>
       <c r="AR83" s="28"/>
     </row>
-    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="157"/>
       <c r="D84" s="10"/>
@@ -30050,7 +30051,7 @@
       <c r="AQ84" s="28"/>
       <c r="AR84" s="28"/>
     </row>
-    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="157"/>
       <c r="D85" s="10"/>
@@ -30095,7 +30096,7 @@
       <c r="AQ85" s="28"/>
       <c r="AR85" s="28"/>
     </row>
-    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="157"/>
       <c r="D86" s="10"/>
@@ -30140,7 +30141,7 @@
       <c r="AQ86" s="28"/>
       <c r="AR86" s="28"/>
     </row>
-    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="157"/>
       <c r="D87" s="10"/>
@@ -30185,7 +30186,7 @@
       <c r="AQ87" s="28"/>
       <c r="AR87" s="28"/>
     </row>
-    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="157"/>
       <c r="D88" s="10"/>
@@ -30230,7 +30231,7 @@
       <c r="AQ88" s="28"/>
       <c r="AR88" s="28"/>
     </row>
-    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="157"/>
       <c r="D89" s="10"/>
@@ -30275,7 +30276,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="157"/>
       <c r="D90" s="10"/>
@@ -30320,7 +30321,7 @@
       <c r="AQ90" s="28"/>
       <c r="AR90" s="28"/>
     </row>
-    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="157"/>
       <c r="D91" s="10"/>
@@ -30365,7 +30366,7 @@
       <c r="AQ91" s="28"/>
       <c r="AR91" s="28"/>
     </row>
-    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="157"/>
       <c r="D92" s="10"/>
@@ -30410,7 +30411,7 @@
       <c r="AQ92" s="28"/>
       <c r="AR92" s="28"/>
     </row>
-    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="157"/>
       <c r="D93" s="10"/>
@@ -30455,7 +30456,7 @@
       <c r="AQ93" s="28"/>
       <c r="AR93" s="28"/>
     </row>
-    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="157"/>
       <c r="D94" s="10"/>
@@ -30500,7 +30501,7 @@
       <c r="AQ94" s="28"/>
       <c r="AR94" s="28"/>
     </row>
-    <row r="95" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:44" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="157"/>
       <c r="D95" s="10"/>
@@ -30545,7 +30546,7 @@
       <c r="AQ95" s="28"/>
       <c r="AR95" s="28"/>
     </row>
-    <row r="96" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:44" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="157"/>
       <c r="D96" s="10"/>
@@ -30590,7 +30591,7 @@
       <c r="AQ96" s="28"/>
       <c r="AR96" s="28"/>
     </row>
-    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="157"/>
       <c r="D97" s="10"/>
@@ -30635,7 +30636,7 @@
       <c r="AQ97" s="28"/>
       <c r="AR97" s="28"/>
     </row>
-    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="157"/>
       <c r="D98" s="10"/>
@@ -30680,7 +30681,7 @@
       <c r="AQ98" s="28"/>
       <c r="AR98" s="28"/>
     </row>
-    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="157"/>
       <c r="D99" s="10"/>
@@ -30725,7 +30726,7 @@
       <c r="AQ99" s="28"/>
       <c r="AR99" s="28"/>
     </row>
-    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="157"/>
       <c r="D100" s="10"/>
@@ -30770,7 +30771,7 @@
       <c r="AQ100" s="28"/>
       <c r="AR100" s="28"/>
     </row>
-    <row r="101" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="157"/>
       <c r="D101" s="10"/>
@@ -30815,7 +30816,7 @@
       <c r="AQ101" s="28"/>
       <c r="AR101" s="28"/>
     </row>
-    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="157"/>
       <c r="D102" s="10"/>
@@ -30860,7 +30861,7 @@
       <c r="AQ102" s="28"/>
       <c r="AR102" s="28"/>
     </row>
-    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="157"/>
       <c r="D103" s="10"/>
@@ -30905,7 +30906,7 @@
       <c r="AQ103" s="28"/>
       <c r="AR103" s="28"/>
     </row>
-    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="157"/>
       <c r="D104" s="10"/>
@@ -30950,7 +30951,7 @@
       <c r="AQ104" s="28"/>
       <c r="AR104" s="28"/>
     </row>
-    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="157"/>
       <c r="D105" s="10"/>
@@ -30995,7 +30996,7 @@
       <c r="AQ105" s="28"/>
       <c r="AR105" s="28"/>
     </row>
-    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="157"/>
       <c r="D106" s="10"/>
@@ -31040,7 +31041,7 @@
       <c r="AQ106" s="28"/>
       <c r="AR106" s="28"/>
     </row>
-    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="157"/>
       <c r="D107" s="10"/>
@@ -31085,7 +31086,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="28"/>
     </row>
-    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="157"/>
       <c r="D108" s="10"/>
@@ -31130,7 +31131,7 @@
       <c r="AQ108" s="28"/>
       <c r="AR108" s="28"/>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="157"/>
       <c r="D109" s="10"/>
@@ -31175,7 +31176,7 @@
       <c r="AQ109" s="28"/>
       <c r="AR109" s="28"/>
     </row>
-    <row r="110" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="157"/>
       <c r="D110" s="10"/>
@@ -31220,7 +31221,7 @@
       <c r="AQ110" s="28"/>
       <c r="AR110" s="28"/>
     </row>
-    <row r="111" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="157"/>
       <c r="D111" s="10"/>
@@ -31265,7 +31266,7 @@
       <c r="AQ111" s="28"/>
       <c r="AR111" s="28"/>
     </row>
-    <row r="112" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:44" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="157"/>
       <c r="D112" s="10"/>
@@ -31310,7 +31311,7 @@
       <c r="AQ112" s="28"/>
       <c r="AR112" s="28"/>
     </row>
-    <row r="113" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="157"/>
       <c r="D113" s="10"/>
@@ -31355,7 +31356,7 @@
       <c r="AQ113" s="28"/>
       <c r="AR113" s="28"/>
     </row>
-    <row r="114" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="157"/>
       <c r="D114" s="10"/>
@@ -31400,7 +31401,7 @@
       <c r="AQ114" s="28"/>
       <c r="AR114" s="28"/>
     </row>
-    <row r="115" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="157"/>
       <c r="D115" s="10"/>
@@ -31445,7 +31446,7 @@
       <c r="AQ115" s="28"/>
       <c r="AR115" s="28"/>
     </row>
-    <row r="116" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="157"/>
       <c r="D116" s="10"/>
@@ -31490,7 +31491,7 @@
       <c r="AQ116" s="28"/>
       <c r="AR116" s="28"/>
     </row>
-    <row r="117" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="157"/>
       <c r="D117" s="10"/>
@@ -31535,7 +31536,7 @@
       <c r="AQ117" s="28"/>
       <c r="AR117" s="28"/>
     </row>
-    <row r="118" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="157"/>
       <c r="D118" s="10"/>
@@ -31580,7 +31581,7 @@
       <c r="AQ118" s="28"/>
       <c r="AR118" s="28"/>
     </row>
-    <row r="119" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="157"/>
       <c r="D119" s="10"/>
@@ -31625,7 +31626,7 @@
       <c r="AQ119" s="28"/>
       <c r="AR119" s="28"/>
     </row>
-    <row r="120" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="157"/>
       <c r="D120" s="10"/>
@@ -31670,7 +31671,7 @@
       <c r="AQ120" s="28"/>
       <c r="AR120" s="28"/>
     </row>
-    <row r="121" spans="2:70" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:70" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="157"/>
       <c r="D121" s="10"/>
@@ -31715,7 +31716,7 @@
       <c r="AQ121" s="28"/>
       <c r="AR121" s="28"/>
     </row>
-    <row r="122" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="157"/>
       <c r="D122" s="10"/>
@@ -31760,7 +31761,7 @@
       <c r="AQ122" s="28"/>
       <c r="AR122" s="28"/>
     </row>
-    <row r="123" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="157"/>
       <c r="D123" s="10"/>
@@ -31831,7 +31832,7 @@
       <c r="BQ123" s="106"/>
       <c r="BR123" s="106"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="157"/>
       <c r="D124" s="10"/>
@@ -31876,7 +31877,7 @@
       <c r="AQ124" s="28"/>
       <c r="AR124" s="28"/>
     </row>
-    <row r="125" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="157"/>
       <c r="D125" s="10"/>
@@ -31921,7 +31922,7 @@
       <c r="AQ125" s="28"/>
       <c r="AR125" s="28"/>
     </row>
-    <row r="126" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="157"/>
       <c r="D126" s="10"/>
@@ -31966,7 +31967,7 @@
       <c r="AQ126" s="28"/>
       <c r="AR126" s="28"/>
     </row>
-    <row r="127" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="157"/>
       <c r="D127" s="10"/>
@@ -32011,7 +32012,7 @@
       <c r="AQ127" s="28"/>
       <c r="AR127" s="28"/>
     </row>
-    <row r="128" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="157"/>
       <c r="D128" s="10"/>
@@ -32056,7 +32057,7 @@
       <c r="AQ128" s="28"/>
       <c r="AR128" s="28"/>
     </row>
-    <row r="129" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="157"/>
       <c r="D129" s="10"/>
@@ -32101,7 +32102,7 @@
       <c r="AQ129" s="28"/>
       <c r="AR129" s="28"/>
     </row>
-    <row r="130" spans="2:44" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:44" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="157"/>
       <c r="D130" s="10"/>
@@ -32146,7 +32147,7 @@
       <c r="AQ130" s="28"/>
       <c r="AR130" s="28"/>
     </row>
-    <row r="131" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="157"/>
       <c r="D131" s="10"/>
@@ -32191,7 +32192,7 @@
       <c r="AQ131" s="28"/>
       <c r="AR131" s="28"/>
     </row>
-    <row r="132" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="157"/>
       <c r="D132" s="10"/>
@@ -32236,7 +32237,7 @@
       <c r="AQ132" s="28"/>
       <c r="AR132" s="28"/>
     </row>
-    <row r="133" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="157"/>
       <c r="D133" s="10"/>
@@ -32281,7 +32282,7 @@
       <c r="AQ133" s="28"/>
       <c r="AR133" s="28"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="157"/>
       <c r="D134" s="10"/>
@@ -32326,7 +32327,7 @@
       <c r="AQ134" s="28"/>
       <c r="AR134" s="28"/>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="157"/>
       <c r="D135" s="10"/>
@@ -32371,7 +32372,7 @@
       <c r="AQ135" s="28"/>
       <c r="AR135" s="28"/>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="157"/>
       <c r="D136" s="10"/>
@@ -32416,7 +32417,7 @@
       <c r="AQ136" s="28"/>
       <c r="AR136" s="28"/>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="157"/>
       <c r="D137" s="10"/>
@@ -32461,7 +32462,7 @@
       <c r="AQ137" s="28"/>
       <c r="AR137" s="28"/>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="157"/>
       <c r="D138" s="10"/>
@@ -32506,7 +32507,7 @@
       <c r="AQ138" s="28"/>
       <c r="AR138" s="28"/>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="157"/>
       <c r="D139" s="10"/>
@@ -32551,7 +32552,7 @@
       <c r="AQ139" s="28"/>
       <c r="AR139" s="28"/>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="157"/>
       <c r="D140" s="10"/>
@@ -32596,7 +32597,7 @@
       <c r="AQ140" s="28"/>
       <c r="AR140" s="28"/>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="157"/>
       <c r="D141" s="10"/>
@@ -32641,7 +32642,7 @@
       <c r="AQ141" s="28"/>
       <c r="AR141" s="28"/>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="157"/>
       <c r="D142" s="10"/>
@@ -32686,7 +32687,7 @@
       <c r="AQ142" s="28"/>
       <c r="AR142" s="28"/>
     </row>
-    <row r="143" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="157"/>
       <c r="D143" s="10"/>
@@ -32731,7 +32732,7 @@
       <c r="AQ143" s="28"/>
       <c r="AR143" s="28"/>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="157"/>
       <c r="D144" s="10"/>
@@ -32776,7 +32777,7 @@
       <c r="AQ144" s="28"/>
       <c r="AR144" s="28"/>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="157"/>
       <c r="D145" s="10"/>
@@ -32821,7 +32822,7 @@
       <c r="AQ145" s="28"/>
       <c r="AR145" s="28"/>
     </row>
-    <row r="146" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:44" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="157"/>
       <c r="D146" s="10"/>
@@ -32866,7 +32867,7 @@
       <c r="AQ146" s="28"/>
       <c r="AR146" s="28"/>
     </row>
-    <row r="147" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:44" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="157"/>
       <c r="D147" s="10"/>
@@ -32911,7 +32912,7 @@
       <c r="AQ147" s="28"/>
       <c r="AR147" s="28"/>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="157"/>
       <c r="D148" s="10"/>
@@ -32956,7 +32957,7 @@
       <c r="AQ148" s="28"/>
       <c r="AR148" s="28"/>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="157"/>
       <c r="D149" s="10"/>
@@ -33001,7 +33002,7 @@
       <c r="AQ149" s="28"/>
       <c r="AR149" s="28"/>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="157"/>
       <c r="D150" s="10"/>
@@ -33046,7 +33047,7 @@
       <c r="AQ150" s="28"/>
       <c r="AR150" s="28"/>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="157"/>
       <c r="D151" s="10"/>
@@ -33091,7 +33092,7 @@
       <c r="AQ151" s="28"/>
       <c r="AR151" s="28"/>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="157"/>
       <c r="D152" s="10"/>
@@ -33136,7 +33137,7 @@
       <c r="AQ152" s="28"/>
       <c r="AR152" s="28"/>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="157"/>
       <c r="D153" s="10"/>
@@ -33181,7 +33182,7 @@
       <c r="AQ153" s="28"/>
       <c r="AR153" s="28"/>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="157"/>
       <c r="D154" s="10"/>
@@ -33226,7 +33227,7 @@
       <c r="AQ154" s="28"/>
       <c r="AR154" s="28"/>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="157"/>
       <c r="D155" s="10"/>
@@ -33271,7 +33272,7 @@
       <c r="AQ155" s="28"/>
       <c r="AR155" s="28"/>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="157"/>
       <c r="D156" s="10"/>
@@ -33316,7 +33317,7 @@
       <c r="AQ156" s="28"/>
       <c r="AR156" s="28"/>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="157"/>
       <c r="D157" s="10"/>
@@ -33361,7 +33362,7 @@
       <c r="AQ157" s="28"/>
       <c r="AR157" s="28"/>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="157"/>
       <c r="D158" s="10"/>
@@ -33406,7 +33407,7 @@
       <c r="AQ158" s="28"/>
       <c r="AR158" s="28"/>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="157"/>
       <c r="D159" s="10"/>
@@ -33451,7 +33452,7 @@
       <c r="AQ159" s="28"/>
       <c r="AR159" s="28"/>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="157"/>
       <c r="D160" s="10"/>
@@ -33496,7 +33497,7 @@
       <c r="AQ160" s="28"/>
       <c r="AR160" s="28"/>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="157"/>
       <c r="D161" s="10"/>
@@ -33541,7 +33542,7 @@
       <c r="AQ161" s="28"/>
       <c r="AR161" s="28"/>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="157"/>
       <c r="D162" s="10"/>
@@ -33586,7 +33587,7 @@
       <c r="AQ162" s="28"/>
       <c r="AR162" s="28"/>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="157"/>
       <c r="D163" s="10"/>
@@ -33631,7 +33632,7 @@
       <c r="AQ163" s="28"/>
       <c r="AR163" s="28"/>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="157"/>
       <c r="D164" s="10"/>
@@ -33676,7 +33677,7 @@
       <c r="AQ164" s="28"/>
       <c r="AR164" s="28"/>
     </row>
-    <row r="165" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="157"/>
       <c r="D165" s="10"/>
@@ -33721,7 +33722,7 @@
       <c r="AQ165" s="28"/>
       <c r="AR165" s="28"/>
     </row>
-    <row r="166" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="157"/>
       <c r="D166" s="10"/>
@@ -33766,7 +33767,7 @@
       <c r="AQ166" s="28"/>
       <c r="AR166" s="28"/>
     </row>
-    <row r="167" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="157"/>
       <c r="D167" s="10"/>
@@ -33811,7 +33812,7 @@
       <c r="AQ167" s="28"/>
       <c r="AR167" s="28"/>
     </row>
-    <row r="168" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="157"/>
       <c r="D168" s="10"/>
@@ -33856,7 +33857,7 @@
       <c r="AQ168" s="28"/>
       <c r="AR168" s="28"/>
     </row>
-    <row r="169" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="157"/>
       <c r="D169" s="10"/>
@@ -33901,7 +33902,7 @@
       <c r="AQ169" s="28"/>
       <c r="AR169" s="28"/>
     </row>
-    <row r="170" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="157"/>
       <c r="D170" s="10"/>
@@ -33946,7 +33947,7 @@
       <c r="AQ170" s="28"/>
       <c r="AR170" s="28"/>
     </row>
-    <row r="171" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="157"/>
       <c r="D171" s="10"/>
@@ -33991,7 +33992,7 @@
       <c r="AQ171" s="28"/>
       <c r="AR171" s="28"/>
     </row>
-    <row r="172" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="157"/>
       <c r="D172" s="10"/>
@@ -34036,7 +34037,7 @@
       <c r="AQ172" s="28"/>
       <c r="AR172" s="28"/>
     </row>
-    <row r="173" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="157"/>
       <c r="D173" s="10"/>
@@ -34081,7 +34082,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="157"/>
       <c r="D174" s="10"/>
@@ -34126,7 +34127,7 @@
       <c r="AQ174" s="28"/>
       <c r="AR174" s="28"/>
     </row>
-    <row r="175" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="157"/>
       <c r="D175" s="10"/>
@@ -34171,7 +34172,7 @@
       <c r="AQ175" s="28"/>
       <c r="AR175" s="28"/>
     </row>
-    <row r="176" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="157"/>
       <c r="D176" s="10"/>
@@ -34216,7 +34217,7 @@
       <c r="AQ176" s="28"/>
       <c r="AR176" s="28"/>
     </row>
-    <row r="177" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="157"/>
       <c r="D177" s="10"/>
@@ -34261,7 +34262,7 @@
       <c r="AQ177" s="28"/>
       <c r="AR177" s="28"/>
     </row>
-    <row r="178" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="157"/>
       <c r="D178" s="10"/>
@@ -34379,7 +34380,13 @@
       <c r="AR196" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:AR178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:AR178" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="AL66:AM122 H148:I178 AM144:AN178 AM123:AN142 M66:N178 R66:S178 W66:X178 AB66:AC178 AG66:AH178 H66:I145">
     <cfRule type="expression" dxfId="19" priority="55">
       <formula>AND(G66="S",H66="")</formula>
@@ -38440,15 +38447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -38649,6 +38647,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -38664,14 +38671,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB2503F1-0DF7-4480-9719-319FD439755B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38690,6 +38689,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
   <ds:schemaRefs>
